--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H2">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N2">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O2">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P2">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q2">
-        <v>0.002952068272444445</v>
+        <v>0.005933099133333334</v>
       </c>
       <c r="R2">
-        <v>0.026568614452</v>
+        <v>0.0533978922</v>
       </c>
       <c r="S2">
-        <v>0.0001964516481487795</v>
+        <v>0.0003789812106597607</v>
       </c>
       <c r="T2">
-        <v>0.0001964516481487795</v>
+        <v>0.0003789812106597607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H3">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.878373</v>
       </c>
       <c r="O3">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P3">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q3">
-        <v>0.6509482332132223</v>
+        <v>1.202946897321778</v>
       </c>
       <c r="R3">
-        <v>5.858534098919001</v>
+        <v>10.826522075896</v>
       </c>
       <c r="S3">
-        <v>0.04331873163908346</v>
+        <v>0.07683914616310812</v>
       </c>
       <c r="T3">
-        <v>0.04331873163908345</v>
+        <v>0.07683914616310812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H4">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N4">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O4">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P4">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q4">
-        <v>0.05400937420611111</v>
+        <v>0.1005744279715556</v>
       </c>
       <c r="R4">
-        <v>0.4860843678550001</v>
+        <v>0.9051698517440001</v>
       </c>
       <c r="S4">
-        <v>0.003594168426697314</v>
+        <v>0.006424267927689049</v>
       </c>
       <c r="T4">
-        <v>0.003594168426697314</v>
+        <v>0.006424267927689049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H5">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I5">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J5">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N5">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O5">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P5">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q5">
-        <v>0.0004008881526666667</v>
+        <v>0.006386486432000001</v>
       </c>
       <c r="R5">
-        <v>0.003607993374000001</v>
+        <v>0.057478377888</v>
       </c>
       <c r="S5">
-        <v>2.667795289486087E-05</v>
+        <v>0.0004079416685056618</v>
       </c>
       <c r="T5">
-        <v>2.667795289486087E-05</v>
+        <v>0.0004079416685056617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.103153</v>
       </c>
       <c r="I6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N6">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O6">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P6">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q6">
-        <v>0.04316699318355556</v>
+        <v>0.04694690890833333</v>
       </c>
       <c r="R6">
-        <v>0.388502938652</v>
+        <v>0.422522180175</v>
       </c>
       <c r="S6">
-        <v>0.002872639171557714</v>
+        <v>0.002998769441564643</v>
       </c>
       <c r="T6">
-        <v>0.002872639171557713</v>
+        <v>0.002998769441564643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.103153</v>
       </c>
       <c r="I7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>20.878373</v>
       </c>
       <c r="O7">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P7">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q7">
         <v>9.518573201118777</v>
@@ -883,10 +883,10 @@
         <v>85.667158810069</v>
       </c>
       <c r="S7">
-        <v>0.6334336542414022</v>
+        <v>0.6080060882931617</v>
       </c>
       <c r="T7">
-        <v>0.6334336542414021</v>
+        <v>0.6080060882931617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.103153</v>
       </c>
       <c r="I8">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J8">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N8">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O8">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P8">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q8">
-        <v>0.7897589327338889</v>
+        <v>0.7958165542795556</v>
       </c>
       <c r="R8">
-        <v>7.107830394605</v>
+        <v>7.162348988516</v>
       </c>
       <c r="S8">
-        <v>0.05255618422649923</v>
+        <v>0.05083338646905441</v>
       </c>
       <c r="T8">
-        <v>0.05255618422649923</v>
+        <v>0.05083338646905441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.103153</v>
       </c>
       <c r="I9">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J9">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N9">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O9">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P9">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q9">
-        <v>0.005862037919333333</v>
+        <v>0.050534432348</v>
       </c>
       <c r="R9">
-        <v>0.052758341274</v>
+        <v>0.454809891132</v>
       </c>
       <c r="S9">
-        <v>0.0003901017539171251</v>
+        <v>0.003227925224382534</v>
       </c>
       <c r="T9">
-        <v>0.000390101753917125</v>
+        <v>0.003227925224382533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H10">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N10">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O10">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P10">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q10">
-        <v>0.01650963878266667</v>
+        <v>0.01770982356666667</v>
       </c>
       <c r="R10">
-        <v>0.148586749044</v>
+        <v>0.1593884121</v>
       </c>
       <c r="S10">
-        <v>0.001098668949993572</v>
+        <v>0.001131228422960014</v>
       </c>
       <c r="T10">
-        <v>0.001098668949993572</v>
+        <v>0.001131228422960014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H11">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I11">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J11">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>20.878373</v>
       </c>
       <c r="O11">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P11">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q11">
-        <v>3.640471427060334</v>
+        <v>3.590699705647556</v>
       </c>
       <c r="R11">
-        <v>32.764242843543</v>
+        <v>32.316297350828</v>
       </c>
       <c r="S11">
-        <v>0.2422628970204485</v>
+        <v>0.2293586692183631</v>
       </c>
       <c r="T11">
-        <v>0.2422628970204485</v>
+        <v>0.2293586692183631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H12">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I12">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J12">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N12">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O12">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P12">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q12">
-        <v>0.3020510288816667</v>
+        <v>0.3002065757991111</v>
       </c>
       <c r="R12">
-        <v>2.718459259935</v>
+        <v>2.701859182192</v>
       </c>
       <c r="S12">
-        <v>0.02010062673777634</v>
+        <v>0.01917592290092894</v>
       </c>
       <c r="T12">
-        <v>0.02010062673777634</v>
+        <v>0.01917592290092894</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H13">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I13">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J13">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N13">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O13">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P13">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q13">
-        <v>0.002241993742</v>
+        <v>0.019063148176</v>
       </c>
       <c r="R13">
-        <v>0.020177943678</v>
+        <v>0.171568333584</v>
       </c>
       <c r="S13">
-        <v>0.0001491982315810205</v>
+        <v>0.001217673059622043</v>
       </c>
       <c r="T13">
-        <v>0.0001491982315810205</v>
+        <v>0.001217673059622042</v>
       </c>
     </row>
   </sheetData>
